--- a/Real data input/Network.xlsx
+++ b/Real data input/Network.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nilson Felipe\Desktop\Prototipo 1\Source\Real Data Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nilson Felipe\Desktop\Prototipo 1\Source\Real data input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DAD6E23-6488-4197-803F-3E1738605A3E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7119C4B3-5D9F-419D-ADC6-9D3966B91B56}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8964" xr2:uid="{E59C3D02-E61C-411D-BC8A-F66A6647C47B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8964" activeTab="2" xr2:uid="{E59C3D02-E61C-411D-BC8A-F66A6647C47B}"/>
   </bookViews>
   <sheets>
     <sheet name="Airport" sheetId="1" r:id="rId1"/>
     <sheet name="Stretches" sheetId="2" r:id="rId2"/>
-    <sheet name="Fuel Price" sheetId="3" r:id="rId3"/>
+    <sheet name="Fuel Prices" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -1103,7 +1103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0DFEC8F-C4DB-49B3-8A68-D7C6547075EB}">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
@@ -2692,7 +2692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ABF7066-760B-4E73-8F36-0D58A15AA8D7}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
